--- a/用例数据/股转/QFII股份对账/测试结果.xlsx
+++ b/用例数据/股转/QFII股份对账/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="stkauditingerror" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
   <si>
     <t>OCCURTIME</t>
   </si>
@@ -122,12 +122,6 @@
   </si>
   <si>
     <t>400006</t>
-  </si>
-  <si>
-    <t>仅券商有余额</t>
-  </si>
-  <si>
-    <t>400009</t>
   </si>
   <si>
     <t>00</t>
@@ -175,6 +169,9 @@
   <si>
     <t>SUBSHAREATTR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅系统有余额</t>
   </si>
 </sst>
 </file>
@@ -525,42 +522,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +628,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>23</v>
@@ -646,9 +643,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -657,7 +654,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>30</v>
@@ -669,19 +666,19 @@
         <v>5000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>33</v>
@@ -690,7 +687,7 @@
         <v>33</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>33</v>
@@ -699,9 +696,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
@@ -710,10 +707,10 @@
         <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -722,19 +719,19 @@
         <v>5000</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>33</v>
@@ -752,9 +749,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -775,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>33</v>
@@ -796,7 +793,7 @@
         <v>33</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>33</v>
@@ -805,9 +802,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>27</v>
@@ -819,7 +816,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2">
         <v>1000</v>
@@ -828,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>33</v>
@@ -858,9 +855,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
@@ -872,7 +869,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2">
         <v>5000</v>
@@ -881,19 +878,19 @@
         <v>2500</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>33</v>
@@ -911,9 +908,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
@@ -925,7 +922,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2">
         <v>2500</v>
@@ -934,19 +931,19 @@
         <v>2000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>33</v>
@@ -955,7 +952,7 @@
         <v>33</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>33</v>
@@ -964,119 +961,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5000</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5000</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5000</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5000</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
